--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Ccl21b-Ccr10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,9 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -446,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,10 +522,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -534,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H2">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J2">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N2">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P2">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q2">
-        <v>0.03670156029277778</v>
+        <v>0.037829504776</v>
       </c>
       <c r="R2">
-        <v>0.330314042635</v>
+        <v>0.3404655429840001</v>
       </c>
       <c r="S2">
-        <v>0.09614321771729203</v>
+        <v>0.09021767912320117</v>
       </c>
       <c r="T2">
-        <v>0.09614321771729203</v>
+        <v>0.09021767912320115</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -596,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H3">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J3">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,22 +623,22 @@
         <v>0.466686</v>
       </c>
       <c r="O3">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P3">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q3">
-        <v>0.007819427638000002</v>
+        <v>0.012302050376</v>
       </c>
       <c r="R3">
-        <v>0.07037484874200001</v>
+        <v>0.110718453384</v>
       </c>
       <c r="S3">
-        <v>0.0204837322399283</v>
+        <v>0.02933853985007886</v>
       </c>
       <c r="T3">
-        <v>0.0204837322399283</v>
+        <v>0.02933853985007885</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>23</v>
-      </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.05026566666666667</v>
+        <v>0.07908133333333334</v>
       </c>
       <c r="H4">
-        <v>0.150797</v>
+        <v>0.237244</v>
       </c>
       <c r="I4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="J4">
-        <v>0.1293799590917827</v>
+        <v>0.1380838080781507</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -676,28 +679,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N4">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O4">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P4">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q4">
-        <v>0.004868313592777778</v>
+        <v>0.007768871105333334</v>
       </c>
       <c r="R4">
-        <v>0.043814822335</v>
+        <v>0.06991983994800001</v>
       </c>
       <c r="S4">
-        <v>0.01275300913456236</v>
+        <v>0.01852758910487071</v>
       </c>
       <c r="T4">
-        <v>0.01275300913456236</v>
+        <v>0.0185275891048707</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,10 +708,10 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
         <v>20</v>
@@ -726,10 +729,10 @@
         <v>0.231626</v>
       </c>
       <c r="I5">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J5">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +741,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N5">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P5">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q5">
-        <v>0.05637403664777777</v>
+        <v>0.036933692204</v>
       </c>
       <c r="R5">
-        <v>0.50736632983</v>
+        <v>0.332403229836</v>
       </c>
       <c r="S5">
-        <v>0.1476771351352181</v>
+        <v>0.08808130087416581</v>
       </c>
       <c r="T5">
-        <v>0.1476771351352181</v>
+        <v>0.0880813008741658</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>21</v>
@@ -788,10 +791,10 @@
         <v>0.231626</v>
       </c>
       <c r="I6">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J6">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +809,10 @@
         <v>0.466686</v>
       </c>
       <c r="O6">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P6">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q6">
         <v>0.012010734604</v>
@@ -818,10 +821,10 @@
         <v>0.108096611436</v>
       </c>
       <c r="S6">
-        <v>0.03146325831286851</v>
+        <v>0.02864379554936844</v>
       </c>
       <c r="T6">
-        <v>0.03146325831286851</v>
+        <v>0.02864379554936843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,13 +832,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -850,10 +853,10 @@
         <v>0.231626</v>
       </c>
       <c r="I7">
-        <v>0.1987291683826154</v>
+        <v>0.1348139473702591</v>
       </c>
       <c r="J7">
-        <v>0.1987291683826154</v>
+        <v>0.134813947370259</v>
       </c>
       <c r="K7">
         <v>1</v>
@@ -862,28 +865,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N7">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O7">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P7">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q7">
-        <v>0.007477788047777777</v>
+        <v>0.007584902204666667</v>
       </c>
       <c r="R7">
-        <v>0.06730009243</v>
+        <v>0.068264119842</v>
       </c>
       <c r="S7">
-        <v>0.0195887749345288</v>
+        <v>0.01808885094672482</v>
       </c>
       <c r="T7">
-        <v>0.0195887749345288</v>
+        <v>0.01808885094672481</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -891,31 +894,31 @@
         <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G8">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H8">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I8">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J8">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -924,28 +927,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.7301516666666666</v>
+        <v>0.478362</v>
       </c>
       <c r="N8">
-        <v>2.190455</v>
+        <v>1.435086</v>
       </c>
       <c r="O8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="P8">
-        <v>0.7431074981952006</v>
+        <v>0.6533545125880439</v>
       </c>
       <c r="Q8">
-        <v>0.1905970873794444</v>
+        <v>0.018738715172</v>
       </c>
       <c r="R8">
-        <v>1.715373786415</v>
+        <v>0.168648436548</v>
       </c>
       <c r="S8">
-        <v>0.4992871453426905</v>
+        <v>0.04468901727841528</v>
       </c>
       <c r="T8">
-        <v>0.4992871453426905</v>
+        <v>0.04468901727841527</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -953,31 +956,31 @@
         <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
         <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G9">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H9">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I9">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J9">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,22 +995,22 @@
         <v>0.466686</v>
       </c>
       <c r="O9">
-        <v>0.1583222964647644</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="P9">
-        <v>0.1583222964647643</v>
+        <v>0.2124690813384451</v>
       </c>
       <c r="Q9">
-        <v>0.040607541502</v>
+        <v>0.006093778372</v>
       </c>
       <c r="R9">
-        <v>0.365467873518</v>
+        <v>0.054844005348</v>
       </c>
       <c r="S9">
-        <v>0.1063753059119676</v>
+        <v>0.01453274487911841</v>
       </c>
       <c r="T9">
-        <v>0.1063753059119675</v>
+        <v>0.0145327448791184</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1015,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>0.2610376666666667</v>
+        <v>0.03917266666666667</v>
       </c>
       <c r="H10">
-        <v>0.7831129999999999</v>
+        <v>0.117518</v>
       </c>
       <c r="I10">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190335</v>
       </c>
       <c r="J10">
-        <v>0.671890872525602</v>
+        <v>0.06839933974190333</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1048,28 +1051,214 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.09685166666666667</v>
+        <v>0.09823900000000001</v>
       </c>
       <c r="N10">
-        <v>0.290555</v>
+        <v>0.294717</v>
       </c>
       <c r="O10">
-        <v>0.09857020534003508</v>
+        <v>0.134176406073511</v>
       </c>
       <c r="P10">
-        <v>0.09857020534003506</v>
+        <v>0.1341764060735109</v>
       </c>
       <c r="Q10">
-        <v>0.02528193307944444</v>
+        <v>0.003848283600666667</v>
       </c>
       <c r="R10">
-        <v>0.227537397715</v>
+        <v>0.034634552406</v>
       </c>
       <c r="S10">
-        <v>0.06622842127094392</v>
+        <v>0.009177577584369661</v>
       </c>
       <c r="T10">
-        <v>0.06622842127094392</v>
+        <v>0.009177577584369658</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H11">
+        <v>1.131728</v>
+      </c>
+      <c r="I11">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J11">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.478362</v>
+      </c>
+      <c r="N11">
+        <v>1.435086</v>
+      </c>
+      <c r="O11">
+        <v>0.6533545125880439</v>
+      </c>
+      <c r="P11">
+        <v>0.6533545125880439</v>
+      </c>
+      <c r="Q11">
+        <v>0.180458556512</v>
+      </c>
+      <c r="R11">
+        <v>1.624127008608</v>
+      </c>
+      <c r="S11">
+        <v>0.4303665153122617</v>
+      </c>
+      <c r="T11">
+        <v>0.4303665153122616</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H12">
+        <v>1.131728</v>
+      </c>
+      <c r="I12">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J12">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.155562</v>
+      </c>
+      <c r="N12">
+        <v>0.466686</v>
+      </c>
+      <c r="O12">
+        <v>0.2124690813384451</v>
+      </c>
+      <c r="P12">
+        <v>0.2124690813384451</v>
+      </c>
+      <c r="Q12">
+        <v>0.05868462371200001</v>
+      </c>
+      <c r="R12">
+        <v>0.5281616134080001</v>
+      </c>
+      <c r="S12">
+        <v>0.1399540010598795</v>
+      </c>
+      <c r="T12">
+        <v>0.1399540010598794</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>0.3772426666666667</v>
+      </c>
+      <c r="H13">
+        <v>1.131728</v>
+      </c>
+      <c r="I13">
+        <v>0.658702904809687</v>
+      </c>
+      <c r="J13">
+        <v>0.6587029048096869</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.09823900000000001</v>
+      </c>
+      <c r="N13">
+        <v>0.294717</v>
+      </c>
+      <c r="O13">
+        <v>0.134176406073511</v>
+      </c>
+      <c r="P13">
+        <v>0.1341764060735109</v>
+      </c>
+      <c r="Q13">
+        <v>0.03705994233066667</v>
+      </c>
+      <c r="R13">
+        <v>0.333539480976</v>
+      </c>
+      <c r="S13">
+        <v>0.0883823884375458</v>
+      </c>
+      <c r="T13">
+        <v>0.08838238843754577</v>
       </c>
     </row>
   </sheetData>
